--- a/artfynd/A 52046-2022 artfynd.xlsx
+++ b/artfynd/A 52046-2022 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80139019</v>
+        <v>102077473</v>
       </c>
       <c r="B2" t="n">
-        <v>88921</v>
+        <v>96367</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,45 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5741</v>
+        <v>219874</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tveta friluftsgård, 300 m V om, Srm</t>
+          <t>Tvetaspåret, Tveta, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>648222.682956806</v>
+        <v>647720.9098417715</v>
       </c>
       <c r="R2" t="n">
-        <v>6560420.292955686</v>
+        <v>6560694.968483768</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +758,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +768,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,23 +782,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>barrskog</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Åsa Johansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Åsa Johansson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 52046-2022 artfynd.xlsx
+++ b/artfynd/A 52046-2022 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>102077473</v>
+        <v>80139019</v>
       </c>
       <c r="B2" t="n">
-        <v>96367</v>
+        <v>88921</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,45 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219874</v>
+        <v>5741</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tvetaspåret, Tveta, Srm</t>
+          <t>Tveta friluftsgård, 300 m V om, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>647720.9098417715</v>
+        <v>648222.682956806</v>
       </c>
       <c r="R2" t="n">
-        <v>6560694.968483768</v>
+        <v>6560420.292955686</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,19 +774,23 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>barrskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Åsa Johansson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Åsa Johansson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
